--- a/sites/default/files/excel/template_excel.xlsx
+++ b/sites/default/files/excel/template_excel.xlsx
@@ -19,6 +19,17 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>REPOBLIKAN'I MADAGASIKARA</t>
+  </si>
+  <si>
+    <t>TANINDRAZANA – FAHAFAHANA – FANDROSOANA</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
@@ -29,6 +40,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -88,9 +100,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -110,17 +126,44 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="C1:D3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.6632653061224"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4795918367347"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.0663265306122"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.2295918367347"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.5255102040816"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.9795918367347"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="12.6632653061224"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:D2"/>
+    <mergeCell ref="C3:D3"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
